--- a/report/summary_DOW_M5_2020-2023_1.xlsx
+++ b/report/summary_DOW_M5_2020-2023_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -486,34 +486,175 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2.8</v>
       </c>
       <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
         <v>150</v>
-      </c>
-      <c r="I2">
-        <v>300</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
+        <v>11126.50000000017</v>
+      </c>
+      <c r="L2">
+        <v>9131</v>
+      </c>
+      <c r="M2">
+        <v>-748.5999999999985</v>
+      </c>
+      <c r="N2">
+        <v>10377.90000000018</v>
+      </c>
+      <c r="O2">
+        <v>0.349468842404994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>2.8</v>
+      </c>
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>300</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
         <v>9019.000000000477</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>9727</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>-811</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>8208.000000000477</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>0.3492340906754395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H4">
+        <v>250</v>
+      </c>
+      <c r="I4">
+        <v>350</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="K4">
+        <v>-7971.299999999759</v>
+      </c>
+      <c r="L4">
+        <v>25838</v>
+      </c>
+      <c r="M4">
+        <v>-1050.5</v>
+      </c>
+      <c r="N4">
+        <v>-9021.799999999759</v>
+      </c>
+      <c r="O4">
+        <v>0.282026472637201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>2.3</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-11301.59999999965</v>
+      </c>
+      <c r="L5">
+        <v>12644</v>
+      </c>
+      <c r="M5">
+        <v>-688</v>
+      </c>
+      <c r="N5">
+        <v>-11989.59999999965</v>
+      </c>
+      <c r="O5">
+        <v>0.3634925656437836</v>
       </c>
     </row>
   </sheetData>

--- a/report/summary_DOW_M5_2020-2023_1.xlsx
+++ b/report/summary_DOW_M5_2020-2023_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +565,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -580,39 +580,39 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>0.6000000000000001</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>250</v>
       </c>
       <c r="I4">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="J4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K4">
-        <v>-7971.299999999759</v>
+        <v>-3952.200000000252</v>
       </c>
       <c r="L4">
-        <v>25838</v>
+        <v>5709</v>
       </c>
       <c r="M4">
-        <v>-1050.5</v>
+        <v>-2008</v>
       </c>
       <c r="N4">
-        <v>-9021.799999999759</v>
+        <v>-5960.200000000252</v>
       </c>
       <c r="O4">
-        <v>0.282026472637201</v>
+        <v>0.3214223156419688</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -627,34 +627,222 @@
         <v>2023</v>
       </c>
       <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H5">
+        <v>250</v>
+      </c>
+      <c r="I5">
+        <v>350</v>
+      </c>
+      <c r="J5">
+        <v>150</v>
+      </c>
+      <c r="K5">
+        <v>-7971.299999999759</v>
+      </c>
+      <c r="L5">
+        <v>25838</v>
+      </c>
+      <c r="M5">
+        <v>-1050.5</v>
+      </c>
+      <c r="N5">
+        <v>-9021.799999999759</v>
+      </c>
+      <c r="O5">
+        <v>0.282026472637201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="G6">
+        <v>2.1</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>350</v>
+      </c>
+      <c r="J6">
+        <v>300</v>
+      </c>
+      <c r="K6">
+        <v>-8332.000000000342</v>
+      </c>
+      <c r="L6">
+        <v>7537</v>
+      </c>
+      <c r="M6">
+        <v>-2008</v>
+      </c>
+      <c r="N6">
+        <v>-10340.00000000034</v>
+      </c>
+      <c r="O6">
+        <v>0.314448719649728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
         <v>50</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>2.3</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>300</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>-11301.59999999965</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>12644</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <v>-688</v>
       </c>
-      <c r="N5">
+      <c r="N7">
         <v>-11989.59999999965</v>
       </c>
-      <c r="O5">
+      <c r="O7">
         <v>0.3634925656437836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>1.7</v>
+      </c>
+      <c r="H8">
+        <v>250</v>
+      </c>
+      <c r="I8">
+        <v>450</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>-18744.69999999934</v>
+      </c>
+      <c r="L8">
+        <v>18579</v>
+      </c>
+      <c r="M8">
+        <v>-645.2999999999993</v>
+      </c>
+      <c r="N8">
+        <v>-19389.99999999934</v>
+      </c>
+      <c r="O8">
+        <v>0.3544862479143119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>2.7</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+      <c r="J9">
+        <v>350</v>
+      </c>
+      <c r="K9">
+        <v>-70135.40000000005</v>
+      </c>
+      <c r="L9">
+        <v>7516</v>
+      </c>
+      <c r="M9">
+        <v>-1790.5</v>
+      </c>
+      <c r="N9">
+        <v>-71925.90000000005</v>
+      </c>
+      <c r="O9">
+        <v>0.1930548163916977</v>
       </c>
     </row>
   </sheetData>

--- a/report/summary_DOW_M5_2020-2023_1.xlsx
+++ b/report/summary_DOW_M5_2020-2023_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -486,39 +486,39 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>11126.50000000017</v>
+        <v>12748.60000000045</v>
       </c>
       <c r="L2">
-        <v>9131</v>
+        <v>13803</v>
       </c>
       <c r="M2">
-        <v>-748.5999999999985</v>
+        <v>-739.3999999999978</v>
       </c>
       <c r="N2">
-        <v>10377.90000000018</v>
+        <v>12009.20000000045</v>
       </c>
       <c r="O2">
-        <v>0.349468842404994</v>
+        <v>0.3375353184090415</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -533,39 +533,39 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>2.8</v>
       </c>
       <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="I3">
         <v>150</v>
-      </c>
-      <c r="I3">
-        <v>300</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3">
-        <v>9019.000000000477</v>
+        <v>11126.50000000017</v>
       </c>
       <c r="L3">
-        <v>9727</v>
+        <v>9131</v>
       </c>
       <c r="M3">
-        <v>-811</v>
+        <v>-748.5999999999985</v>
       </c>
       <c r="N3">
-        <v>8208.000000000477</v>
+        <v>10377.90000000018</v>
       </c>
       <c r="O3">
-        <v>0.3492340906754395</v>
+        <v>0.349468842404994</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -580,39 +580,39 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H4">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="I4">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>-3952.200000000252</v>
+        <v>9019.000000000477</v>
       </c>
       <c r="L4">
-        <v>5709</v>
+        <v>9727</v>
       </c>
       <c r="M4">
-        <v>-2008</v>
+        <v>-811</v>
       </c>
       <c r="N4">
-        <v>-5960.200000000252</v>
+        <v>8208.000000000477</v>
       </c>
       <c r="O4">
-        <v>0.3214223156419688</v>
+        <v>0.3492340906754395</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -627,39 +627,39 @@
         <v>2023</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H5">
         <v>250</v>
       </c>
       <c r="I5">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K5">
-        <v>-7971.299999999759</v>
+        <v>8304.299999999559</v>
       </c>
       <c r="L5">
-        <v>25838</v>
+        <v>12113</v>
       </c>
       <c r="M5">
-        <v>-1050.5</v>
+        <v>-651</v>
       </c>
       <c r="N5">
-        <v>-9021.799999999759</v>
+        <v>7653.299999999559</v>
       </c>
       <c r="O5">
-        <v>0.282026472637201</v>
+        <v>0.2980269132337158</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -674,39 +674,39 @@
         <v>2023</v>
       </c>
       <c r="F6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H6">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="I6">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="J6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K6">
-        <v>-8332.000000000342</v>
+        <v>5078.499999999793</v>
       </c>
       <c r="L6">
-        <v>7537</v>
+        <v>10307</v>
       </c>
       <c r="M6">
-        <v>-2008</v>
+        <v>-748.5999999999985</v>
       </c>
       <c r="N6">
-        <v>-10340.00000000034</v>
+        <v>4329.899999999794</v>
       </c>
       <c r="O6">
-        <v>0.314448719649728</v>
+        <v>0.3081400989618706</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -721,39 +721,39 @@
         <v>2023</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H7">
+        <v>250</v>
+      </c>
+      <c r="I7">
+        <v>450</v>
+      </c>
+      <c r="J7">
         <v>300</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>-11301.59999999965</v>
+        <v>-3952.200000000252</v>
       </c>
       <c r="L7">
-        <v>12644</v>
+        <v>5709</v>
       </c>
       <c r="M7">
-        <v>-688</v>
+        <v>-2008</v>
       </c>
       <c r="N7">
-        <v>-11989.59999999965</v>
+        <v>-5960.200000000252</v>
       </c>
       <c r="O7">
-        <v>0.3634925656437836</v>
+        <v>0.3214223156419688</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -768,81 +768,363 @@
         <v>2023</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>1.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H8">
         <v>250</v>
       </c>
       <c r="I8">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K8">
-        <v>-18744.69999999934</v>
+        <v>-7971.299999999759</v>
       </c>
       <c r="L8">
-        <v>18579</v>
+        <v>25838</v>
       </c>
       <c r="M8">
-        <v>-645.2999999999993</v>
+        <v>-1050.5</v>
       </c>
       <c r="N8">
-        <v>-19389.99999999934</v>
+        <v>-9021.799999999759</v>
       </c>
       <c r="O8">
-        <v>0.3544862479143119</v>
+        <v>0.282026472637201</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <v>2.1</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>350</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+      <c r="K9">
+        <v>-8332.000000000342</v>
+      </c>
+      <c r="L9">
+        <v>7537</v>
+      </c>
+      <c r="M9">
+        <v>-2008</v>
+      </c>
+      <c r="N9">
+        <v>-10340.00000000034</v>
+      </c>
+      <c r="O9">
+        <v>0.314448719649728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>2.3</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-11301.59999999965</v>
+      </c>
+      <c r="L10">
+        <v>12644</v>
+      </c>
+      <c r="M10">
+        <v>-688</v>
+      </c>
+      <c r="N10">
+        <v>-11989.59999999965</v>
+      </c>
+      <c r="O10">
+        <v>0.3634925656437836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>1.7</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11">
+        <v>450</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>-18744.69999999934</v>
+      </c>
+      <c r="L11">
+        <v>18579</v>
+      </c>
+      <c r="M11">
+        <v>-645.2999999999993</v>
+      </c>
+      <c r="N11">
+        <v>-19389.99999999934</v>
+      </c>
+      <c r="O11">
+        <v>0.3544862479143119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="H12">
+        <v>150</v>
+      </c>
+      <c r="I12">
+        <v>300</v>
+      </c>
+      <c r="J12">
+        <v>250</v>
+      </c>
+      <c r="K12">
+        <v>-29072.29999999985</v>
+      </c>
+      <c r="L12">
+        <v>5637</v>
+      </c>
+      <c r="M12">
+        <v>-811</v>
+      </c>
+      <c r="N12">
+        <v>-29883.29999999985</v>
+      </c>
+      <c r="O12">
+        <v>0.2971438708532907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>400</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>-35815.29999999968</v>
+      </c>
+      <c r="L13">
+        <v>53283</v>
+      </c>
+      <c r="M13">
+        <v>-735</v>
+      </c>
+      <c r="N13">
+        <v>-36550.29999999968</v>
+      </c>
+      <c r="O13">
+        <v>0.3012030103410093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>2020</v>
-      </c>
-      <c r="E9">
-        <v>2023</v>
-      </c>
-      <c r="F9">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="G14">
         <v>2.7</v>
       </c>
-      <c r="H9">
+      <c r="H14">
         <v>100</v>
       </c>
-      <c r="I9">
+      <c r="I14">
         <v>500</v>
       </c>
-      <c r="J9">
+      <c r="J14">
         <v>350</v>
       </c>
-      <c r="K9">
+      <c r="K14">
         <v>-70135.40000000005</v>
       </c>
-      <c r="L9">
+      <c r="L14">
         <v>7516</v>
       </c>
-      <c r="M9">
+      <c r="M14">
         <v>-1790.5</v>
       </c>
-      <c r="N9">
+      <c r="N14">
         <v>-71925.90000000005</v>
       </c>
-      <c r="O9">
+      <c r="O14">
         <v>0.1930548163916977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>90</v>
+      </c>
+      <c r="G15">
+        <v>3.2</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>300</v>
+      </c>
+      <c r="J15">
+        <v>150</v>
+      </c>
+      <c r="K15">
+        <v>-87770.69999999975</v>
+      </c>
+      <c r="L15">
+        <v>7966</v>
+      </c>
+      <c r="M15">
+        <v>-619.0999999999985</v>
+      </c>
+      <c r="N15">
+        <v>-88389.79999999976</v>
+      </c>
+      <c r="O15">
+        <v>0.2043685664072307</v>
       </c>
     </row>
   </sheetData>
